--- a/src/test/java/TestData/TestData.xlsx
+++ b/src/test/java/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ammie\Study\Selenium_Cert\gitRepo\CP-SAT-Java\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29BF389E-4E46-4DA8-A8B1-24B598CA2907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286EC25C-CC02-4584-8804-E8A900FDDAF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{99EF4B71-4442-40CB-A414-244992C1FC24}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2A78B97-875C-4E31-8DEB-11BCD9EB8581}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,13 +47,13 @@
     <t>Results</t>
   </si>
   <si>
-    <t>Apache_POI_TC</t>
-  </si>
-  <si>
-    <t>testuser_1</t>
-  </si>
-  <si>
-    <t>Test@123</t>
+    <t>ammie</t>
+  </si>
+  <si>
+    <t>Ammie130483</t>
+  </si>
+  <si>
+    <t>DataDriven_TC</t>
   </si>
 </sst>
 </file>
@@ -69,9 +69,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,16 +94,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -415,44 +413,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065FAC2D-868B-4A3B-8C0F-8B110F56CF63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1284E58-4B67-4A0B-818A-3CF218344311}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{8E55923A-A9EA-4647-9ADE-46653B2CD901}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/java/TestData/TestData.xlsx
+++ b/src/test/java/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ammie\Study\Selenium_Cert\gitRepo\CP-SAT-Java\src\test\java\TestData\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -54,12 +54,16 @@
   </si>
   <si>
     <t>DataDriven_TC</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,10 +426,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.77734375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6640625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -451,6 +455,9 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/TestData/TestData.xlsx
+++ b/src/test/java/TestData/TestData.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -426,10 +426,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.77734375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6640625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.88671875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">

--- a/src/test/java/TestData/TestData.xlsx
+++ b/src/test/java/TestData/TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ammie\Study\Selenium_Cert\gitRepo\CP-SAT-Java\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286EC25C-CC02-4584-8804-E8A900FDDAF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270CA212-FA38-439E-BF44-E02520B7656B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2A78B97-875C-4E31-8DEB-11BCD9EB8581}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -63,7 +63,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,15 +420,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.88671875" collapsed="true"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
